--- a/timetabling_GA/results/PS_CT001_HK2/LichHocKy_PS_CT001_HK2.xlsx
+++ b/timetabling_GA/results/PS_CT001_HK2/LichHocKy_PS_CT001_HK2.xlsx
@@ -516,7 +516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -626,7 +626,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -645,21 +645,94 @@
         <is>
           <t>MH006
 (Theory)
-Room: TH1
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="I8" s="9" t="inlineStr">
-        <is>
-          <t>MH009
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: TH2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>MH006
 (Practice)
-Room: TH2
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9"/>
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -677,7 +750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -787,7 +860,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -798,14 +871,7 @@
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT2
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
@@ -813,14 +879,43 @@
         <is>
           <t>MH006
 (Theory)
-Room: LT2
+Room: LT1
 Lecturer: GV002</t>
         </is>
       </c>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -838,7 +933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -948,7 +1043,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -959,14 +1054,7 @@
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT2
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
@@ -974,14 +1062,43 @@
         <is>
           <t>MH006
 (Theory)
-Room: LT2
+Room: LT1
 Lecturer: GV002</t>
         </is>
       </c>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -999,7 +1116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1109,7 +1226,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1120,14 +1237,7 @@
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT2
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
@@ -1135,14 +1245,43 @@
         <is>
           <t>MH006
 (Theory)
-Room: LT2
+Room: LT1
 Lecturer: GV002</t>
         </is>
       </c>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1160,7 +1299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1270,7 +1409,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1281,14 +1420,7 @@
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT2
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
@@ -1296,14 +1428,43 @@
         <is>
           <t>MH006
 (Theory)
-Room: LT2
+Room: LT1
 Lecturer: GV002</t>
         </is>
       </c>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1321,7 +1482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1431,7 +1592,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1442,14 +1603,7 @@
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT2
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
@@ -1457,14 +1611,43 @@
         <is>
           <t>MH006
 (Theory)
-Room: LT2
+Room: LT1
 Lecturer: GV002</t>
         </is>
       </c>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1482,7 +1665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1592,7 +1775,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1603,14 +1786,7 @@
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT2
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
@@ -1618,14 +1794,43 @@
         <is>
           <t>MH006
 (Theory)
-Room: LT2
+Room: LT1
 Lecturer: GV002</t>
         </is>
       </c>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1766,10 +1971,10 @@
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>MH009
+          <t>MH006
 (Theory)
 Room: LT2
-Lecturer: GV003</t>
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr"/>
@@ -1792,429 +1997,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="25" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="8" max="8"/>
-    <col width="25" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>WEEK 2 TIMETABLE (08/12/2025 - 14/12/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="40" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>Students</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>Monday
-08/12</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>Tuesday
-09/12</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>Wednesday
-10/12</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>Thursday
-11/12</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>Friday
-12/12</t>
-        </is>
-      </c>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>Saturday
-13/12</t>
-        </is>
-      </c>
-      <c r="J7" s="5" t="inlineStr">
-        <is>
-          <t>Sunday
-14/12</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: TH3
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="I8" s="7" t="inlineStr"/>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>MH006
-(Practice)
-Room: TH1
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT2
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT2
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>MH009
-(Practice)
-Room: TH2
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A2:J2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="25" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="8" max="8"/>
-    <col width="25" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>WEEK 3 TIMETABLE (15/12/2025 - 21/12/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="40" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>Students</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>Monday
-15/12</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>Tuesday
-16/12</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>Wednesday
-17/12</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>Thursday
-18/12</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>Friday
-19/12</t>
-        </is>
-      </c>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>Saturday
-20/12</t>
-        </is>
-      </c>
-      <c r="J7" s="5" t="inlineStr">
-        <is>
-          <t>Sunday
-21/12</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>MH006
-(Practice)
-Room: TH1
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT2
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT2
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>MH009
-(Practice)
-Room: TH2
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A2:J2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2264,7 +2046,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 4 TIMETABLE (22/12/2025 - 28/12/2025)</t>
+          <t>WEEK 2 TIMETABLE (08/12/2025 - 14/12/2025)</t>
         </is>
       </c>
     </row>
@@ -2287,43 +2069,43 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-22/12</t>
+08/12</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-23/12</t>
+09/12</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-24/12</t>
+10/12</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-25/12</t>
+11/12</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-26/12</t>
+12/12</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-27/12</t>
+13/12</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-28/12</t>
+14/12</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2131,7 @@
         <is>
           <t>MH006
 (Theory)
-Room: TH1
+Room: LT1
 Lecturer: GV002</t>
         </is>
       </c>
@@ -2370,19 +2152,26 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>MH006
-(Practice)
-Room: TH1
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
@@ -2401,56 +2190,49 @@
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MH009
+          <t>MH006
 (Theory)
 Room: LT2
-Lecturer: GV003</t>
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT2
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="I10" s="9" t="inlineStr">
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="9" t="inlineStr">
         <is>
           <t>MH009
 (Practice)
-Room: TH2
+Room: TH1
 Lecturer: GV003</t>
         </is>
       </c>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr">
         <is>
           <t>MH006
 (Theory)
-Room: TH1
+Room: TH2
 Lecturer: GV002</t>
         </is>
       </c>
@@ -2469,204 +2251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="25" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="8" max="8"/>
-    <col width="25" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>WEEK 5 TIMETABLE (29/12/2025 - 04/01/2026)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="40" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>Students</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>Monday
-29/12</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>Tuesday
-30/12</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>Wednesday
-31/12</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>Thursday
-01/01</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>Friday
-02/01</t>
-        </is>
-      </c>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>Saturday
-03/01</t>
-        </is>
-      </c>
-      <c r="J7" s="5" t="inlineStr">
-        <is>
-          <t>Sunday
-04/01</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>MH006
-(Practice)
-Room: TH1
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT2
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT2
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>MH009
-(Practice)
-Room: TH2
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A2:J2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2716,7 +2301,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 6 TIMETABLE (05/01/2026 - 11/01/2026)</t>
+          <t>WEEK 3 TIMETABLE (15/12/2025 - 21/12/2025)</t>
         </is>
       </c>
     </row>
@@ -2739,43 +2324,43 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-05/01</t>
+15/12</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-06/01</t>
+16/12</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-07/01</t>
+17/12</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-08/01</t>
+18/12</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-09/01</t>
+19/12</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-10/01</t>
+20/12</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-11/01</t>
+21/12</t>
         </is>
       </c>
     </row>
@@ -2801,7 +2386,7 @@
         <is>
           <t>MH006
 (Theory)
-Room: TH2
+Room: LT1
 Lecturer: GV002</t>
         </is>
       </c>
@@ -2824,17 +2409,17 @@
       </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>MH006
-(Practice)
-Room: TH1
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
@@ -2853,59 +2438,45 @@
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MH009
+          <t>MH006
 (Theory)
 Room: LT2
-Lecturer: GV003</t>
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT2
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="I10" s="9" t="inlineStr">
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="9" t="inlineStr">
         <is>
           <t>MH009
 (Practice)
-Room: TH2
+Room: TH1
 Lecturer: GV003</t>
         </is>
       </c>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: TH3
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="H11" s="7" t="inlineStr"/>
       <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
@@ -2921,13 +2492,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2971,7 +2542,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 7 TIMETABLE (12/01/2026 - 18/01/2026)</t>
+          <t>WEEK 4 TIMETABLE (22/12/2025 - 28/12/2025)</t>
         </is>
       </c>
     </row>
@@ -2994,50 +2565,50 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-12/01</t>
+22/12</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-13/01</t>
+23/12</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-14/01</t>
+24/12</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-15/01</t>
+25/12</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-16/01</t>
+26/12</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-17/01</t>
+27/12</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-18/01</t>
+28/12</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -3050,23 +2621,23 @@
       </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>MH006
-(Practice)
-Room: TH1
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -3077,18 +2648,65 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT2
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr">
         <is>
           <t>MH006
 (Theory)
@@ -3096,17 +2714,79 @@
 Lecturer: GV002</t>
         </is>
       </c>
-      <c r="I9" s="9" t="inlineStr">
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="9" t="inlineStr">
         <is>
           <t>MH009
 (Practice)
+Room: TH1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: TH1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
 Room: TH2
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I13" s="7" t="inlineStr"/>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -3118,13 +2798,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3168,7 +2848,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 8 TIMETABLE (19/01/2026 - 25/01/2026)</t>
+          <t>WEEK 5 TIMETABLE (29/12/2025 - 04/01/2026)</t>
         </is>
       </c>
     </row>
@@ -3191,50 +2871,50 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-19/01</t>
+29/12</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-20/01</t>
+30/12</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-21/01</t>
+31/12</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-22/01</t>
+01/01</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-23/01</t>
+02/01</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-24/01</t>
+03/01</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-25/01</t>
+04/01</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -3247,23 +2927,23 @@
       </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>MH006
-(Practice)
-Room: TH1
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -3274,18 +2954,65 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT2
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: TH2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr">
         <is>
           <t>MH006
 (Theory)
@@ -3293,17 +3020,50 @@
 Lecturer: GV002</t>
         </is>
       </c>
-      <c r="I9" s="9" t="inlineStr">
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="9" t="inlineStr">
         <is>
           <t>MH009
 (Practice)
-Room: TH2
+Room: TH1
 Lecturer: GV003</t>
         </is>
       </c>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -3315,13 +3075,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3365,7 +3125,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 9 TIMETABLE (26/01/2026 - 01/02/2026)</t>
+          <t>WEEK 6 TIMETABLE (05/01/2026 - 11/01/2026)</t>
         </is>
       </c>
     </row>
@@ -3388,6 +3148,801 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
+05/01</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>Tuesday
+06/01</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>Wednesday
+07/01</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>Thursday
+08/01</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>Friday
+09/01</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>Saturday
+10/01</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>Sunday
+11/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: TH1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: TH2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>WEEK 7 TIMETABLE (12/01/2026 - 18/01/2026)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="40" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Students</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Monday
+12/01</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>Tuesday
+13/01</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>Wednesday
+14/01</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>Thursday
+15/01</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>Friday
+16/01</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>Saturday
+17/01</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>Sunday
+18/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: TH2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: TH2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>WEEK 8 TIMETABLE (19/01/2026 - 25/01/2026)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="40" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Students</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Monday
+19/01</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>Tuesday
+20/01</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>Wednesday
+21/01</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>Thursday
+22/01</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>Friday
+23/01</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>Saturday
+24/01</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>Sunday
+25/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>WEEK 9 TIMETABLE (26/01/2026 - 01/02/2026)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="40" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Students</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Monday
 26/01</t>
         </is>
       </c>
@@ -3431,7 +3986,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -3444,23 +3999,23 @@
       </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>MH006
-(Practice)
-Room: TH1
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -3471,14 +4026,7 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT2
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
@@ -3486,14 +4034,79 @@
         <is>
           <t>MH006
 (Theory)
-Room: LT2
+Room: TH3
 Lecturer: GV002</t>
         </is>
       </c>
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
-    <row r="10"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: TH1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>

--- a/timetabling_GA/results/PS_CT001_HK2/LichHocKy_PS_CT001_HK2.xlsx
+++ b/timetabling_GA/results/PS_CT001_HK2/LichHocKy_PS_CT001_HK2.xlsx
@@ -154,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -183,6 +183,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -549,7 +550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,7 +665,7 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -678,46 +679,111 @@
         <is>
           <t>MH005
 (Theory)
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="I8" s="9" t="inlineStr">
+        <is>
+          <t>MH008
+(Practice)
+Room: TH2
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="10" t="n"/>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="11" t="n"/>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT4
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
 Room: LT4
 Lecturer: GV007</t>
         </is>
       </c>
-      <c r="I8" s="7" t="inlineStr"/>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Practice)
-Room: TH2
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>MH003
-(Theory)
-Room: LT4
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
+      <c r="I11" s="9" t="inlineStr">
         <is>
           <t>MH004
 (Practice)
@@ -725,20 +791,23 @@
 Lecturer: GV001</t>
         </is>
       </c>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="10" t="n"/>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="9" t="inlineStr">
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="10" t="n"/>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
         <is>
           <t>MH004
 (Practice)
@@ -746,235 +815,440 @@
 Lecturer: GV001</t>
         </is>
       </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="9" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="I12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="11" t="n"/>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr">
+        <is>
+          <t>MH006
 (Practice)
-Room: TH1
+Room: TH2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I13" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
 Lecturer: GV007</t>
         </is>
       </c>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I10" s="7" t="inlineStr"/>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
         <is>
           <t>DH22IT</t>
         </is>
       </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="10" t="n"/>
-      <c r="B12" s="7" t="inlineStr">
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT3
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="I14" s="7" t="inlineStr"/>
+      <c r="J14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I15" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: A102
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
         <is>
           <t>DH23CS</t>
         </is>
       </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT4
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="H12" s="7" t="inlineStr"/>
-      <c r="I12" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Practice)
-Room: TH1
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="J12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F13" s="9" t="inlineStr">
-        <is>
-          <t>MH005
+      <c r="C16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="9" t="inlineStr">
+        <is>
+          <t>MH004
 (Practice)
 Room: TH1
 Lecturer: GV001</t>
         </is>
       </c>
-      <c r="G13" s="8" t="inlineStr">
+      <c r="I16" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr">
         <is>
           <t>MH004
 (Theory)
 Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I17" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: A102
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="I18" s="7" t="inlineStr"/>
+      <c r="J18" s="7" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="11" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT3
 Lecturer: GV001</t>
         </is>
       </c>
-      <c r="H13" s="7" t="inlineStr"/>
-      <c r="I13" s="8" t="inlineStr">
-        <is>
-          <t>MH005
+      <c r="I19" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="7" t="inlineStr"/>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="9" t="inlineStr">
+        <is>
+          <t>MH008
+(Practice)
+Room: TH1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="I21" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: A102
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="7" t="inlineStr"/>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="I22" s="8" t="inlineStr">
+        <is>
+          <t>MH004
 (Theory)
 Room: LT2
 Lecturer: GV001</t>
         </is>
       </c>
-      <c r="J13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="10" t="n"/>
-      <c r="B14" s="7" t="inlineStr">
+      <c r="J22" s="7" t="inlineStr"/>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D23" s="7" t="inlineStr"/>
+      <c r="E23" s="7" t="inlineStr"/>
+      <c r="F23" s="7" t="inlineStr"/>
+      <c r="G23" s="7" t="inlineStr"/>
+      <c r="H23" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I23" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J23" s="7" t="inlineStr"/>
+    </row>
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" s="10" t="n"/>
+      <c r="B24" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D24" s="7" t="inlineStr"/>
+      <c r="E24" s="7" t="inlineStr"/>
+      <c r="F24" s="7" t="inlineStr"/>
+      <c r="G24" s="7" t="inlineStr"/>
+      <c r="H24" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="I24" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J24" s="7" t="inlineStr"/>
+    </row>
+    <row r="25" ht="60" customHeight="1">
+      <c r="A25" s="11" t="n"/>
+      <c r="B25" s="7" t="inlineStr">
         <is>
           <t>DH23CS</t>
         </is>
       </c>
-      <c r="C14" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="8" t="inlineStr">
-        <is>
-          <t>MH003
-(Theory)
-Room: LT3
+      <c r="C25" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D25" s="7" t="inlineStr"/>
+      <c r="E25" s="7" t="inlineStr"/>
+      <c r="F25" s="7" t="inlineStr"/>
+      <c r="G25" s="7" t="inlineStr"/>
+      <c r="H25" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT4
 Lecturer: GV007</t>
         </is>
       </c>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
-      <c r="I14" s="7" t="inlineStr"/>
-      <c r="J14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-      <c r="I15" s="7" t="inlineStr"/>
-      <c r="J15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="10" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="H16" s="7" t="inlineStr"/>
-      <c r="I16" s="7" t="inlineStr"/>
-      <c r="J16" s="7" t="inlineStr"/>
-    </row>
-    <row r="17"/>
+      <c r="I25" s="9" t="inlineStr">
+        <is>
+          <t>MH008
+(Practice)
+Room: TH3
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="J25" s="7" t="inlineStr"/>
+    </row>
+    <row r="26"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A23:A25"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -986,7 +1260,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1101,7 +1375,7 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -1110,8 +1384,7 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
+      <c r="G8" s="8" t="inlineStr">
         <is>
           <t>MH005
 (Theory)
@@ -1119,47 +1392,44 @@
 Lecturer: GV007</t>
         </is>
       </c>
+      <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>MH003
-(Theory)
-Room: LT4
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A10" s="11" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
@@ -1167,23 +1437,23 @@
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -1194,24 +1464,17 @@
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
+      <c r="D11" s="8" t="inlineStr">
         <is>
           <t>MH005
 (Theory)
 Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
       <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
@@ -1220,7 +1483,7 @@
       <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
@@ -1230,23 +1493,33 @@
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="8" t="inlineStr">
         <is>
-          <t>MH003
+          <t>MH005
 (Theory)
 Room: LT3
 Lecturer: GV007</t>
         </is>
       </c>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I12" s="7" t="inlineStr"/>
       <c r="J12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
+      <c r="A13" s="11" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
           <t>DH23CS</t>
@@ -1255,36 +1528,241 @@
       <c r="C13" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT4
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
       <c r="I13" s="7" t="inlineStr"/>
       <c r="J13" s="7" t="inlineStr"/>
     </row>
-    <row r="14"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="11" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT4
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H15" s="7" t="inlineStr"/>
+      <c r="I15" s="7" t="inlineStr"/>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: A102
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="11" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H17" s="7" t="inlineStr"/>
+      <c r="I17" s="7" t="inlineStr"/>
+      <c r="J17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT2
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="H18" s="7" t="inlineStr"/>
+      <c r="I18" s="7" t="inlineStr"/>
+      <c r="J18" s="7" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="I19" s="7" t="inlineStr"/>
+      <c r="J19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="11" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+      <c r="I20" s="7" t="inlineStr"/>
+      <c r="J20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1296,7 +1774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1411,7 +1889,7 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -1420,8 +1898,7 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
+      <c r="G8" s="8" t="inlineStr">
         <is>
           <t>MH005
 (Theory)
@@ -1429,47 +1906,44 @@
 Lecturer: GV007</t>
         </is>
       </c>
+      <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>MH003
-(Theory)
-Room: LT4
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A10" s="11" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
@@ -1477,23 +1951,23 @@
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -1504,24 +1978,17 @@
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
+      <c r="D11" s="8" t="inlineStr">
         <is>
           <t>MH005
 (Theory)
 Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
       <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
@@ -1530,7 +1997,7 @@
       <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
@@ -1540,23 +2007,33 @@
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="8" t="inlineStr">
         <is>
-          <t>MH003
+          <t>MH005
 (Theory)
 Room: LT3
 Lecturer: GV007</t>
         </is>
       </c>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I12" s="7" t="inlineStr"/>
       <c r="J12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
+      <c r="A13" s="11" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
           <t>DH23CS</t>
@@ -1565,36 +2042,241 @@
       <c r="C13" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT4
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
       <c r="I13" s="7" t="inlineStr"/>
       <c r="J13" s="7" t="inlineStr"/>
     </row>
-    <row r="14"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="11" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT4
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H15" s="7" t="inlineStr"/>
+      <c r="I15" s="7" t="inlineStr"/>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: A102
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="11" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H17" s="7" t="inlineStr"/>
+      <c r="I17" s="7" t="inlineStr"/>
+      <c r="J17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT2
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="H18" s="7" t="inlineStr"/>
+      <c r="I18" s="7" t="inlineStr"/>
+      <c r="J18" s="7" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="I19" s="7" t="inlineStr"/>
+      <c r="J19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="11" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+      <c r="I20" s="7" t="inlineStr"/>
+      <c r="J20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1606,7 +2288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1721,7 +2403,7 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -1730,8 +2412,7 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
+      <c r="G8" s="8" t="inlineStr">
         <is>
           <t>MH005
 (Theory)
@@ -1739,47 +2420,44 @@
 Lecturer: GV007</t>
         </is>
       </c>
+      <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>MH003
-(Theory)
-Room: LT4
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A10" s="11" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
@@ -1787,23 +2465,23 @@
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -1814,24 +2492,17 @@
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
+      <c r="D11" s="8" t="inlineStr">
         <is>
           <t>MH005
 (Theory)
 Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
       <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
@@ -1840,7 +2511,7 @@
       <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
@@ -1850,23 +2521,33 @@
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="8" t="inlineStr">
         <is>
-          <t>MH003
+          <t>MH005
 (Theory)
 Room: LT3
 Lecturer: GV007</t>
         </is>
       </c>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I12" s="7" t="inlineStr"/>
       <c r="J12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
+      <c r="A13" s="11" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
           <t>DH23CS</t>
@@ -1875,36 +2556,241 @@
       <c r="C13" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT4
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
       <c r="I13" s="7" t="inlineStr"/>
       <c r="J13" s="7" t="inlineStr"/>
     </row>
-    <row r="14"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="11" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT4
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H15" s="7" t="inlineStr"/>
+      <c r="I15" s="7" t="inlineStr"/>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: A102
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="11" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H17" s="7" t="inlineStr"/>
+      <c r="I17" s="7" t="inlineStr"/>
+      <c r="J17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT2
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="H18" s="7" t="inlineStr"/>
+      <c r="I18" s="7" t="inlineStr"/>
+      <c r="J18" s="7" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="I19" s="7" t="inlineStr"/>
+      <c r="J19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="11" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+      <c r="I20" s="7" t="inlineStr"/>
+      <c r="J20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1916,7 +2802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2031,7 +2917,7 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -2040,8 +2926,7 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
+      <c r="G8" s="8" t="inlineStr">
         <is>
           <t>MH005
 (Theory)
@@ -2049,47 +2934,44 @@
 Lecturer: GV007</t>
         </is>
       </c>
+      <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>MH003
-(Theory)
-Room: LT4
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A10" s="11" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
@@ -2097,23 +2979,23 @@
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -2124,24 +3006,17 @@
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
+      <c r="D11" s="8" t="inlineStr">
         <is>
           <t>MH005
 (Theory)
 Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
       <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
@@ -2150,7 +3025,7 @@
       <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
@@ -2160,23 +3035,33 @@
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="8" t="inlineStr">
         <is>
-          <t>MH003
+          <t>MH005
 (Theory)
 Room: LT3
 Lecturer: GV007</t>
         </is>
       </c>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I12" s="7" t="inlineStr"/>
       <c r="J12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
+      <c r="A13" s="11" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
           <t>DH23CS</t>
@@ -2185,36 +3070,241 @@
       <c r="C13" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT4
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
       <c r="I13" s="7" t="inlineStr"/>
       <c r="J13" s="7" t="inlineStr"/>
     </row>
-    <row r="14"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="11" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT4
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H15" s="7" t="inlineStr"/>
+      <c r="I15" s="7" t="inlineStr"/>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: A102
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="11" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H17" s="7" t="inlineStr"/>
+      <c r="I17" s="7" t="inlineStr"/>
+      <c r="J17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT2
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="H18" s="7" t="inlineStr"/>
+      <c r="I18" s="7" t="inlineStr"/>
+      <c r="J18" s="7" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="I19" s="7" t="inlineStr"/>
+      <c r="J19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="11" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+      <c r="I20" s="7" t="inlineStr"/>
+      <c r="J20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2226,7 +3316,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2341,7 +3431,7 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -2350,8 +3440,7 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
+      <c r="G8" s="8" t="inlineStr">
         <is>
           <t>MH005
 (Theory)
@@ -2359,47 +3448,44 @@
 Lecturer: GV007</t>
         </is>
       </c>
+      <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>MH003
-(Theory)
-Room: LT4
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A10" s="11" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
@@ -2407,23 +3493,23 @@
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -2434,24 +3520,17 @@
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
+      <c r="D11" s="8" t="inlineStr">
         <is>
           <t>MH005
 (Theory)
 Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
       <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
@@ -2460,7 +3539,7 @@
       <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
@@ -2470,23 +3549,33 @@
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="8" t="inlineStr">
         <is>
-          <t>MH003
+          <t>MH005
 (Theory)
 Room: LT3
 Lecturer: GV007</t>
         </is>
       </c>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I12" s="7" t="inlineStr"/>
       <c r="J12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
+      <c r="A13" s="11" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
           <t>DH23CS</t>
@@ -2495,36 +3584,241 @@
       <c r="C13" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT4
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
       <c r="I13" s="7" t="inlineStr"/>
       <c r="J13" s="7" t="inlineStr"/>
     </row>
-    <row r="14"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="11" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT4
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H15" s="7" t="inlineStr"/>
+      <c r="I15" s="7" t="inlineStr"/>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: A102
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="11" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H17" s="7" t="inlineStr"/>
+      <c r="I17" s="7" t="inlineStr"/>
+      <c r="J17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT2
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="H18" s="7" t="inlineStr"/>
+      <c r="I18" s="7" t="inlineStr"/>
+      <c r="J18" s="7" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="I19" s="7" t="inlineStr"/>
+      <c r="J19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="11" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+      <c r="I20" s="7" t="inlineStr"/>
+      <c r="J20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2536,7 +3830,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2651,7 +3945,7 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -2660,8 +3954,7 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
+      <c r="G8" s="8" t="inlineStr">
         <is>
           <t>MH005
 (Theory)
@@ -2669,47 +3962,44 @@
 Lecturer: GV007</t>
         </is>
       </c>
+      <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>MH003
-(Theory)
-Room: LT4
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A10" s="11" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
@@ -2717,23 +4007,23 @@
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -2744,24 +4034,17 @@
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
+      <c r="D11" s="8" t="inlineStr">
         <is>
           <t>MH005
 (Theory)
 Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
       <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
@@ -2770,7 +4053,7 @@
       <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
@@ -2780,23 +4063,33 @@
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="8" t="inlineStr">
         <is>
-          <t>MH003
+          <t>MH005
 (Theory)
 Room: LT3
 Lecturer: GV007</t>
         </is>
       </c>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I12" s="7" t="inlineStr"/>
       <c r="J12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
+      <c r="A13" s="11" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
           <t>DH23CS</t>
@@ -2805,36 +4098,241 @@
       <c r="C13" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT4
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
       <c r="I13" s="7" t="inlineStr"/>
       <c r="J13" s="7" t="inlineStr"/>
     </row>
-    <row r="14"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="11" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT4
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H15" s="7" t="inlineStr"/>
+      <c r="I15" s="7" t="inlineStr"/>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: A102
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="11" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H17" s="7" t="inlineStr"/>
+      <c r="I17" s="7" t="inlineStr"/>
+      <c r="J17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT2
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="H18" s="7" t="inlineStr"/>
+      <c r="I18" s="7" t="inlineStr"/>
+      <c r="J18" s="7" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="I19" s="7" t="inlineStr"/>
+      <c r="J19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="11" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+      <c r="I20" s="7" t="inlineStr"/>
+      <c r="J20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2846,7 +4344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2961,17 +4459,21 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
         <is>
           <t>MH005
 (Theory)
@@ -2979,71 +4481,70 @@
 Lecturer: GV007</t>
         </is>
       </c>
-      <c r="I8" s="7" t="inlineStr"/>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>MH006
 (Practice)
-Room: TH2
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+Room: TH1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>MH005
 (Theory)
 Room: LT4
 Lecturer: GV007</t>
         </is>
       </c>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="9" t="inlineStr">
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="10" t="n"/>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
         <is>
           <t>MH004
 (Practice)
@@ -3051,35 +4552,56 @@
 Lecturer: GV001</t>
         </is>
       </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="11" t="n"/>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>MH004
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>MH004
-(Practice)
-Room: TH1
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Practice)
-Room: TH1
-Lecturer: GV007</t>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
@@ -3087,70 +4609,87 @@
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="I12" s="8" t="inlineStr">
         <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="11" t="n"/>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
           <t>MH005
 (Theory)
 Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="J12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="10" t="n"/>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="H13" s="7" t="inlineStr"/>
-      <c r="I13" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Practice)
-Room: TH1
-Lecturer: GV007</t>
-        </is>
-      </c>
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT4
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I13" s="7" t="inlineStr"/>
       <c r="J13" s="7" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B14" s="7" t="inlineStr">
@@ -3161,29 +4700,29 @@
       <c r="C14" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT4
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="F14" s="9" t="inlineStr">
-        <is>
-          <t>MH005
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E14" s="9" t="inlineStr">
+        <is>
+          <t>MH004
 (Practice)
-Room: TH1
+Room: TH3
 Lecturer: GV001</t>
         </is>
       </c>
+      <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr">
         <is>
-          <t>MH004
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
+          <t>MH005
+(Theory)
+Room: A101
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="H14" s="7" t="inlineStr"/>
@@ -3194,99 +4733,463 @@
       <c r="A15" s="10" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C15" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr"/>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="F15" s="8" t="inlineStr">
         <is>
-          <t>MH003
+          <t>MH005
 (Theory)
 Room: LT3
 Lecturer: GV007</t>
         </is>
       </c>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I15" s="7" t="inlineStr"/>
       <c r="J15" s="7" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
+      <c r="A16" s="11" t="n"/>
       <c r="B16" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C16" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D16" s="7" t="inlineStr"/>
+      <c r="D16" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT4
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="7" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
       <c r="I16" s="8" t="inlineStr">
         <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
           <t>MH005
 (Theory)
 Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="J16" s="7" t="inlineStr"/>
-    </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="10" t="n"/>
-      <c r="B17" s="7" t="inlineStr">
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I17" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="9" t="inlineStr">
+        <is>
+          <t>MH008
+(Practice)
+Room: TH3
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
+      <c r="I18" s="7" t="inlineStr"/>
+      <c r="J18" s="7" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="11" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
         <is>
           <t>DH23CS</t>
         </is>
       </c>
-      <c r="C17" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D17" s="7" t="inlineStr"/>
-      <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="8" t="inlineStr">
-        <is>
-          <t>MH004
+      <c r="C19" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>MH006
 (Theory)
 Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G17" s="8" t="inlineStr">
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr">
         <is>
           <t>MH005
 (Theory)
 Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="H17" s="7" t="inlineStr"/>
-      <c r="I17" s="7" t="inlineStr"/>
-      <c r="J17" s="7" t="inlineStr"/>
-    </row>
-    <row r="18"/>
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H19" s="7" t="inlineStr"/>
+      <c r="I19" s="7" t="inlineStr"/>
+      <c r="J19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="9" t="inlineStr">
+        <is>
+          <t>MH008
+(Practice)
+Room: TH1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+      <c r="I20" s="7" t="inlineStr"/>
+      <c r="J20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="7" t="inlineStr"/>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="7" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: A102
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D22" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F22" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G22" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H22" s="7" t="inlineStr"/>
+      <c r="I22" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J22" s="7" t="inlineStr"/>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D23" s="7" t="inlineStr"/>
+      <c r="E23" s="7" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G23" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT2
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="H23" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: A102
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J23" s="7" t="inlineStr"/>
+    </row>
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" s="10" t="n"/>
+      <c r="B24" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D24" s="7" t="inlineStr"/>
+      <c r="E24" s="7" t="inlineStr"/>
+      <c r="F24" s="7" t="inlineStr"/>
+      <c r="G24" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H24" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="I24" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J24" s="7" t="inlineStr"/>
+    </row>
+    <row r="25" ht="60" customHeight="1">
+      <c r="A25" s="11" t="n"/>
+      <c r="B25" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C25" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D25" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F25" s="7" t="inlineStr"/>
+      <c r="G25" s="7" t="inlineStr"/>
+      <c r="H25" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I25" s="9" t="inlineStr">
+        <is>
+          <t>MH008
+(Practice)
+Room: TH3
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="J25" s="7" t="inlineStr"/>
+    </row>
+    <row r="26"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A23:A25"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3298,7 +5201,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3420,7 +5323,16 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="G8" s="8" t="inlineStr">
         <is>
           <t>MH005
 (Theory)
@@ -3428,46 +5340,68 @@
 Lecturer: GV007</t>
         </is>
       </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="10" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>MH008
+(Practice)
+Room: TH3
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>MH005
-(Theory)
-Room: LT2
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>MH004
+(Practice)
+Room: TH3
 Lecturer: GV001</t>
         </is>
       </c>
-      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
+      <c r="A10" s="11" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
@@ -3477,21 +5411,21 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT1
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>MH004
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -3502,25 +5436,108 @@
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>MH006
 (Practice)
-Room: TH2
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="10" t="n"/>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="11" t="n"/>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>MH005
 (Theory)
 Room: LT4
 Lecturer: GV007</t>
         </is>
       </c>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="9" t="inlineStr">
+      <c r="I13" s="7" t="inlineStr"/>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E14" s="9" t="inlineStr">
         <is>
           <t>MH004
 (Practice)
@@ -3528,217 +5545,480 @@
 Lecturer: GV001</t>
         </is>
       </c>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="10" t="n"/>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>MH004
+      <c r="F14" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT4
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+      <c r="I14" s="7" t="inlineStr"/>
+      <c r="J14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>MH005
 (Practice)
 Room: TH1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT3
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="G15" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT4
 Lecturer: GV001</t>
         </is>
       </c>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I15" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT4
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: A101
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="H16" s="7" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: A102
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>MH006
 (Practice)
 Room: TH1
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="H12" s="7" t="inlineStr"/>
-      <c r="I12" s="7" t="inlineStr"/>
-      <c r="J12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
-      <c r="I13" s="8" t="inlineStr">
-        <is>
-          <t>MH005
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr">
+        <is>
+          <t>MH004
 (Theory)
 Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="J13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="10" t="n"/>
-      <c r="B14" s="7" t="inlineStr">
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I17" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="9" t="inlineStr">
+        <is>
+          <t>MH008
+(Practice)
+Room: TH3
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
+      <c r="I18" s="7" t="inlineStr"/>
+      <c r="J18" s="7" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="11" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
         <is>
           <t>DH23CS</t>
         </is>
       </c>
-      <c r="C14" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
-      <c r="I14" s="9" t="inlineStr">
+      <c r="C19" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="9" t="inlineStr">
         <is>
           <t>MH005
 (Practice)
 Room: TH1
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="J14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT4
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H19" s="7" t="inlineStr"/>
+      <c r="I19" s="7" t="inlineStr"/>
+      <c r="J19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
+      <c r="B20" s="7" t="inlineStr">
         <is>
           <t>DH22IT</t>
         </is>
       </c>
-      <c r="C15" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F15" s="9" t="inlineStr">
-        <is>
-          <t>MH005
+      <c r="C20" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="9" t="inlineStr">
+        <is>
+          <t>MH008
 (Practice)
 Room: TH1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G15" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="H15" s="7" t="inlineStr"/>
-      <c r="I15" s="7" t="inlineStr"/>
-      <c r="J15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="10" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+      <c r="I20" s="7" t="inlineStr"/>
+      <c r="J20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr">
+        <is>
+          <t>MH005
 (Theory)
 Room: LT3
 Lecturer: GV007</t>
         </is>
       </c>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>MH005
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: A102
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: A102
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="7" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: A102
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F22" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G22" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H22" s="7" t="inlineStr"/>
+      <c r="I22" s="7" t="inlineStr"/>
+      <c r="J22" s="7" t="inlineStr"/>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D23" s="7" t="inlineStr"/>
+      <c r="E23" s="7" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G23" s="8" t="inlineStr">
+        <is>
+          <t>MH008
 (Theory)
 Room: LT2
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="H16" s="7" t="inlineStr"/>
-      <c r="I16" s="7" t="inlineStr"/>
-      <c r="J16" s="7" t="inlineStr"/>
-    </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B17" s="7" t="inlineStr">
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="H23" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I23" s="7" t="inlineStr"/>
+      <c r="J23" s="7" t="inlineStr"/>
+    </row>
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" s="10" t="n"/>
+      <c r="B24" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D24" s="7" t="inlineStr"/>
+      <c r="E24" s="7" t="inlineStr"/>
+      <c r="F24" s="7" t="inlineStr"/>
+      <c r="G24" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H24" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="I24" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J24" s="7" t="inlineStr"/>
+    </row>
+    <row r="25" ht="60" customHeight="1">
+      <c r="A25" s="11" t="n"/>
+      <c r="B25" s="7" t="inlineStr">
         <is>
           <t>DH23CS</t>
         </is>
       </c>
-      <c r="C17" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D17" s="7" t="inlineStr"/>
-      <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="8" t="inlineStr">
-        <is>
-          <t>MH004
+      <c r="C25" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D25" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>MH006
 (Theory)
 Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G17" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="H17" s="7" t="inlineStr"/>
-      <c r="I17" s="7" t="inlineStr"/>
-      <c r="J17" s="7" t="inlineStr"/>
-    </row>
-    <row r="18"/>
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F25" s="7" t="inlineStr"/>
+      <c r="G25" s="7" t="inlineStr"/>
+      <c r="H25" s="7" t="inlineStr"/>
+      <c r="I25" s="9" t="inlineStr">
+        <is>
+          <t>MH008
+(Practice)
+Room: TH3
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="J25" s="7" t="inlineStr"/>
+    </row>
+    <row r="26"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A23:A25"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3750,7 +6030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3876,12 +6156,19 @@
         <is>
           <t>MH005
 (Theory)
-Room: LT1
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT4
 Lecturer: GV007</t>
         </is>
       </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
@@ -3890,60 +6177,25 @@
       <c r="A9" s="10" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT4
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Practice)
-Room: TH2
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>MH003
-(Theory)
-Room: LT4
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="9" t="inlineStr">
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
         <is>
           <t>MH004
 (Practice)
@@ -3951,72 +6203,117 @@
 Lecturer: GV001</t>
         </is>
       </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="11" t="n"/>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT4
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>MH004
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>MH004
-(Practice)
-Room: TH1
-Lecturer: GV001</t>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Practice)
-Room: TH1
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="H11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT4
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr">
         <is>
-          <t>MH005
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="J12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="10" t="n"/>
+      <c r="A13" s="11" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
           <t>DH23CS</t>
@@ -4027,23 +6324,23 @@
       </c>
       <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
-      <c r="I13" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Practice)
-Room: TH1
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="I13" s="7" t="inlineStr"/>
       <c r="J13" s="7" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B14" s="7" t="inlineStr">
@@ -4054,31 +6351,24 @@
       <c r="C14" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="8" t="inlineStr">
+      <c r="D14" s="8" t="inlineStr">
         <is>
           <t>MH005
 (Theory)
 Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E14" s="9" t="inlineStr">
+        <is>
+          <t>MH004
+(Practice)
+Room: TH3
 Lecturer: GV001</t>
         </is>
       </c>
-      <c r="F14" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Practice)
-Room: TH1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G14" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
       <c r="I14" s="7" t="inlineStr"/>
       <c r="J14" s="7" t="inlineStr"/>
@@ -4087,33 +6377,57 @@
       <c r="A15" s="10" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C15" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr"/>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="F15" s="8" t="inlineStr">
         <is>
-          <t>MH003
+          <t>MH005
 (Theory)
 Room: LT3
 Lecturer: GV007</t>
         </is>
       </c>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-      <c r="I15" s="7" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I15" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="J15" s="7" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
+      <c r="A16" s="11" t="n"/>
       <c r="B16" s="7" t="inlineStr">
         <is>
           <t>DH23CS</t>
@@ -4122,17 +6436,76 @@
       <c r="C16" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D16" s="7" t="inlineStr"/>
+      <c r="D16" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT4
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr">
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+      <c r="I16" s="7" t="inlineStr"/>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr">
         <is>
           <t>MH004
 (Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G16" s="8" t="inlineStr">
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I17" s="7" t="inlineStr"/>
+      <c r="J17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr">
         <is>
           <t>MH005
 (Theory)
@@ -4140,7 +6513,48 @@
 Lecturer: GV007</t>
         </is>
       </c>
-      <c r="H16" s="8" t="inlineStr">
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
+      <c r="I18" s="7" t="inlineStr"/>
+      <c r="J18" s="7" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="11" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT4
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT4
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H19" s="8" t="inlineStr">
         <is>
           <t>MH005
 (Theory)
@@ -4148,20 +6562,250 @@
 Lecturer: GV007</t>
         </is>
       </c>
-      <c r="I16" s="7" t="inlineStr"/>
-      <c r="J16" s="7" t="inlineStr"/>
-    </row>
-    <row r="17"/>
+      <c r="I19" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT4
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="9" t="inlineStr">
+        <is>
+          <t>MH008
+(Practice)
+Room: TH1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+      <c r="I20" s="7" t="inlineStr"/>
+      <c r="J20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="7" t="inlineStr"/>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="I21" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: A102
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D22" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F22" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G22" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H22" s="7" t="inlineStr"/>
+      <c r="I22" s="7" t="inlineStr"/>
+      <c r="J22" s="7" t="inlineStr"/>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D23" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E23" s="7" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G23" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT2
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="H23" s="7" t="inlineStr"/>
+      <c r="I23" s="7" t="inlineStr"/>
+      <c r="J23" s="7" t="inlineStr"/>
+    </row>
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" s="10" t="n"/>
+      <c r="B24" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D24" s="7" t="inlineStr"/>
+      <c r="E24" s="7" t="inlineStr"/>
+      <c r="F24" s="7" t="inlineStr"/>
+      <c r="G24" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H24" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="I24" s="7" t="inlineStr"/>
+      <c r="J24" s="7" t="inlineStr"/>
+    </row>
+    <row r="25" ht="60" customHeight="1">
+      <c r="A25" s="11" t="n"/>
+      <c r="B25" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C25" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D25" s="7" t="inlineStr"/>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F25" s="7" t="inlineStr"/>
+      <c r="G25" s="7" t="inlineStr"/>
+      <c r="H25" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: A101
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="I25" s="9" t="inlineStr">
+        <is>
+          <t>MH008
+(Practice)
+Room: TH3
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="J25" s="7" t="inlineStr"/>
+    </row>
+    <row r="26"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A23:A25"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4173,7 +6817,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4299,13 +6943,27 @@
         <is>
           <t>MH005
 (Theory)
-Room: LT2
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT4
 Lecturer: GV007</t>
         </is>
       </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
@@ -4313,7 +6971,7 @@
       <c r="A9" s="10" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
@@ -4323,50 +6981,8 @@
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT4
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Practice)
-Room: TH2
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>MH003
-(Theory)
-Room: LT4
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="9" t="inlineStr">
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
         <is>
           <t>MH004
 (Practice)
@@ -4374,57 +6990,74 @@
 Lecturer: GV001</t>
         </is>
       </c>
-      <c r="I10" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
-      <c r="B11" s="7" t="inlineStr">
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="11" t="n"/>
+      <c r="B10" s="7" t="inlineStr">
         <is>
           <t>DH23CS</t>
         </is>
       </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
         <is>
           <t>MH004
 (Practice)
-Room: TH1
+Room: TH2
 Lecturer: GV001</t>
         </is>
       </c>
-      <c r="E11" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Practice)
-Room: TH1
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="H11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
@@ -4437,16 +7070,16 @@
       <c r="H12" s="7" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr">
         <is>
-          <t>MH005
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="J12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="10" t="n"/>
+      <c r="A13" s="11" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
           <t>DH23CS</t>
@@ -4457,30 +7090,23 @@
       </c>
       <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I13" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Practice)
-Room: TH1
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="7" t="inlineStr"/>
       <c r="J13" s="7" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B14" s="7" t="inlineStr">
@@ -4491,31 +7117,24 @@
       <c r="C14" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="8" t="inlineStr">
+      <c r="D14" s="8" t="inlineStr">
         <is>
           <t>MH005
 (Theory)
 Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E14" s="9" t="inlineStr">
+        <is>
+          <t>MH004
+(Practice)
+Room: TH3
 Lecturer: GV001</t>
         </is>
       </c>
-      <c r="F14" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Practice)
-Room: TH1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G14" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
       <c r="I14" s="7" t="inlineStr"/>
       <c r="J14" s="7" t="inlineStr"/>
@@ -4524,17 +7143,24 @@
       <c r="A15" s="10" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C15" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="F15" s="8" t="inlineStr">
         <is>
-          <t>MH003
+          <t>MH005
 (Theory)
 Room: LT3
 Lecturer: GV007</t>
@@ -4542,22 +7168,25 @@
       </c>
       <c r="G15" s="8" t="inlineStr">
         <is>
-          <t>MH005
-(Theory)
-Room: LT1
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="H15" s="7" t="inlineStr"/>
+          <t>MH004
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I15" s="7" t="inlineStr"/>
       <c r="J15" s="7" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
+      <c r="A16" s="11" t="n"/>
       <c r="B16" s="7" t="inlineStr">
         <is>
           <t>DH23CS</t>
@@ -4566,39 +7195,369 @@
       <c r="C16" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D16" s="7" t="inlineStr"/>
+      <c r="D16" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT4
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
       <c r="I16" s="7" t="inlineStr"/>
       <c r="J16" s="7" t="inlineStr"/>
     </row>
-    <row r="17"/>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I17" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="9" t="inlineStr">
+        <is>
+          <t>MH008
+(Practice)
+Room: TH3
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
+      <c r="I18" s="7" t="inlineStr"/>
+      <c r="J18" s="7" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="11" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT4
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H19" s="7" t="inlineStr"/>
+      <c r="I19" s="7" t="inlineStr"/>
+      <c r="J19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="9" t="inlineStr">
+        <is>
+          <t>MH008
+(Practice)
+Room: TH1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F21" s="7" t="inlineStr"/>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H21" s="7" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: A102
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D22" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G22" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="H22" s="7" t="inlineStr"/>
+      <c r="I22" s="7" t="inlineStr"/>
+      <c r="J22" s="7" t="inlineStr"/>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D23" s="7" t="inlineStr"/>
+      <c r="E23" s="7" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G23" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT2
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="H23" s="7" t="inlineStr"/>
+      <c r="I23" s="7" t="inlineStr"/>
+      <c r="J23" s="7" t="inlineStr"/>
+    </row>
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" s="10" t="n"/>
+      <c r="B24" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D24" s="7" t="inlineStr"/>
+      <c r="E24" s="7" t="inlineStr"/>
+      <c r="F24" s="7" t="inlineStr"/>
+      <c r="G24" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H24" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="I24" s="7" t="inlineStr"/>
+      <c r="J24" s="7" t="inlineStr"/>
+    </row>
+    <row r="25" ht="60" customHeight="1">
+      <c r="A25" s="11" t="n"/>
+      <c r="B25" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C25" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D25" s="7" t="inlineStr"/>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT4
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F25" s="7" t="inlineStr"/>
+      <c r="G25" s="7" t="inlineStr"/>
+      <c r="H25" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT4
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I25" s="9" t="inlineStr">
+        <is>
+          <t>MH008
+(Practice)
+Room: TH3
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="J25" s="7" t="inlineStr"/>
+    </row>
+    <row r="26"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A23:A25"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4610,7 +7569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4732,42 +7691,9 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT1
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT3
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="10" t="n"/>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
+      <c r="G8" s="8" t="inlineStr">
         <is>
           <t>MH005
 (Theory)
@@ -4775,47 +7701,87 @@
 Lecturer: GV007</t>
         </is>
       </c>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="11" t="n"/>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT4
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Practice)
-Room: TH2
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>MH003
-(Theory)
-Room: LT4
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
+      <c r="A11" s="11" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
           <t>DH23CS</t>
@@ -4826,21 +7792,21 @@
       </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Practice)
-Room: TH1
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr">
         <is>
-          <t>MH005
-(Theory)
-Room: LT4
-Lecturer: GV007</t>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="I11" s="7" t="inlineStr"/>
@@ -4849,7 +7815,7 @@
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -4860,168 +7826,401 @@
       <c r="C12" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D12" s="7" t="inlineStr"/>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
-      <c r="I12" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="I12" s="7" t="inlineStr"/>
       <c r="J12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="10" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C13" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT1
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="H13" s="7" t="inlineStr"/>
-      <c r="I13" s="9" t="inlineStr">
+      <c r="E13" s="9" t="inlineStr">
         <is>
           <t>MH005
 (Practice)
 Room: TH1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT3
 Lecturer: GV007</t>
         </is>
       </c>
+      <c r="G13" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I13" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="J13" s="7" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A14" s="11" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C14" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F14" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Practice)
-Room: TH1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G14" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT4
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
       <c r="I14" s="7" t="inlineStr"/>
       <c r="J14" s="7" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
       <c r="B15" s="7" t="inlineStr">
         <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I15" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
           <t>DH23CS</t>
         </is>
       </c>
-      <c r="C15" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="8" t="inlineStr">
-        <is>
-          <t>MH003
-(Theory)
-Room: LT3
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-      <c r="I15" s="7" t="inlineStr"/>
-      <c r="J15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
       <c r="C16" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr">
+      <c r="D16" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E16" s="8" t="inlineStr">
         <is>
           <t>MH004
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>MH005
 (Theory)
 Room: LT4
 Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT4
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="H16" s="7" t="inlineStr"/>
       <c r="I16" s="7" t="inlineStr"/>
       <c r="J16" s="7" t="inlineStr"/>
     </row>
-    <row r="17"/>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT4
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="H17" s="7" t="inlineStr"/>
+      <c r="I17" s="7" t="inlineStr"/>
+      <c r="J17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: A102
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J18" s="7" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="11" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H19" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="I19" s="7" t="inlineStr"/>
+      <c r="J19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT2
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="H20" s="7" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F21" s="7" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="I21" s="7" t="inlineStr"/>
+      <c r="J21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="F22" s="7" t="inlineStr"/>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="7" t="inlineStr"/>
+      <c r="I22" s="7" t="inlineStr"/>
+      <c r="J22" s="7" t="inlineStr"/>
+    </row>
+    <row r="23"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5033,7 +8232,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5155,25 +8354,25 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT4
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="10" t="n"/>
+      <c r="A9" s="11" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
@@ -5187,24 +8386,17 @@
           <t>MH005
 (Theory)
 Room: LT1
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT4
-Lecturer: GV007</t>
-        </is>
-      </c>
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -5215,40 +8407,33 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Practice)
-Room: TH2
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT4
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: A101
 Lecturer: GV007</t>
         </is>
       </c>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>MH003
-(Theory)
-Room: LT4
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="10" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
@@ -5257,124 +8442,141 @@
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Practice)
-Room: TH1
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT4
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I11" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A12" s="11" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D12" s="7" t="inlineStr"/>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr">
         <is>
           <t>MH005
 (Theory)
+Room: A101
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
 Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="J12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="10" t="n"/>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="inlineStr"/>
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT3
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I13" s="9" t="inlineStr">
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="7" t="inlineStr"/>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="10" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="9" t="inlineStr">
         <is>
           <t>MH005
 (Practice)
 Room: TH1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F14" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT3
 Lecturer: GV007</t>
         </is>
       </c>
-      <c r="J13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT1
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT4
 Lecturer: GV001</t>
         </is>
       </c>
-      <c r="F14" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Practice)
-Room: TH1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G14" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr"/>
+      <c r="H14" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I14" s="7" t="inlineStr"/>
       <c r="J14" s="7" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
+      <c r="A15" s="11" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
           <t>DH23CS</t>
@@ -5383,16 +8585,16 @@
       <c r="C15" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D15" s="7" t="inlineStr"/>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT4
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="8" t="inlineStr">
-        <is>
-          <t>MH003
-(Theory)
-Room: LT3
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
       <c r="I15" s="7" t="inlineStr"/>
@@ -5401,50 +8603,337 @@
     <row r="16" ht="60" customHeight="1">
       <c r="A16" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B16" s="7" t="inlineStr">
         <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I16" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="10" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT4
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+      <c r="I17" s="7" t="inlineStr"/>
+      <c r="J17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="11" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
           <t>DH23CS</t>
         </is>
       </c>
-      <c r="C16" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr">
+      <c r="C18" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
         <is>
           <t>MH004
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>MH005
 (Theory)
 Room: LT4
 Lecturer: GV001</t>
         </is>
       </c>
-      <c r="H16" s="7" t="inlineStr"/>
-      <c r="I16" s="7" t="inlineStr"/>
-      <c r="J16" s="7" t="inlineStr"/>
-    </row>
-    <row r="17"/>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT4
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H18" s="7" t="inlineStr"/>
+      <c r="I18" s="7" t="inlineStr"/>
+      <c r="J18" s="7" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT3
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="I19" s="7" t="inlineStr"/>
+      <c r="J19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="10" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: A102
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="11" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H21" s="7" t="inlineStr"/>
+      <c r="I21" s="7" t="inlineStr"/>
+      <c r="J21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D22" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G22" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT2
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="H22" s="7" t="inlineStr"/>
+      <c r="I22" s="7" t="inlineStr"/>
+      <c r="J22" s="7" t="inlineStr"/>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D23" s="7" t="inlineStr"/>
+      <c r="E23" s="7" t="inlineStr"/>
+      <c r="F23" s="7" t="inlineStr"/>
+      <c r="G23" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H23" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="I23" s="7" t="inlineStr"/>
+      <c r="J23" s="7" t="inlineStr"/>
+    </row>
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" s="11" t="n"/>
+      <c r="B24" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D24" s="7" t="inlineStr"/>
+      <c r="E24" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F24" s="7" t="inlineStr"/>
+      <c r="G24" s="7" t="inlineStr"/>
+      <c r="H24" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I24" s="7" t="inlineStr"/>
+      <c r="J24" s="7" t="inlineStr"/>
+    </row>
+    <row r="25"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5456,7 +8945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5571,7 +9060,7 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -5580,8 +9069,7 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
+      <c r="G8" s="8" t="inlineStr">
         <is>
           <t>MH005
 (Theory)
@@ -5589,79 +9077,76 @@
 Lecturer: GV007</t>
         </is>
       </c>
+      <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
+      <c r="A9" s="11" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Practice)
-Room: TH2
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr">
         <is>
-          <t>MH003
-(Theory)
-Room: LT4
-Lecturer: GV007</t>
+          <t>MH006
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Practice)
-Room: TH1
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
       <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
@@ -5674,16 +9159,16 @@
       <c r="H11" s="7" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr">
         <is>
-          <t>MH005
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="11" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>DH23CS</t>
@@ -5694,23 +9179,23 @@
       </c>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
-      <c r="I12" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Practice)
-Room: TH1
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="I12" s="7" t="inlineStr"/>
       <c r="J12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
@@ -5721,31 +9206,17 @@
       <c r="C13" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="8" t="inlineStr">
+      <c r="D13" s="8" t="inlineStr">
         <is>
           <t>MH005
 (Theory)
 Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F13" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Practice)
-Room: TH1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
       <c r="I13" s="7" t="inlineStr"/>
       <c r="J13" s="7" t="inlineStr"/>
@@ -5754,33 +9225,50 @@
       <c r="A14" s="10" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C14" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
+      <c r="E14" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="F14" s="8" t="inlineStr">
         <is>
-          <t>MH003
+          <t>MH005
 (Theory)
 Room: LT3
 Lecturer: GV007</t>
         </is>
       </c>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H14" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I14" s="7" t="inlineStr"/>
       <c r="J14" s="7" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
+      <c r="A15" s="11" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
           <t>DH23CS</t>
@@ -5789,45 +9277,320 @@
       <c r="C15" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D15" s="7" t="inlineStr"/>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT4
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="8" t="inlineStr">
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+      <c r="I15" s="7" t="inlineStr"/>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr">
         <is>
           <t>MH004
 (Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I16" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
 Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G15" s="8" t="inlineStr">
-        <is>
-          <t>MH005
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="10" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: A101
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="I17" s="7" t="inlineStr"/>
+      <c r="J17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="11" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>MH004
 (Theory)
 Room: LT4
 Lecturer: GV001</t>
         </is>
       </c>
-      <c r="H15" s="8" t="inlineStr">
-        <is>
-          <t>MH005
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT4
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H18" s="7" t="inlineStr"/>
+      <c r="I18" s="7" t="inlineStr"/>
+      <c r="J18" s="7" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+      <c r="I19" s="7" t="inlineStr"/>
+      <c r="J19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="10" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: A102
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="11" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H21" s="7" t="inlineStr"/>
+      <c r="I21" s="7" t="inlineStr"/>
+      <c r="J21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G22" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT2
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="H22" s="7" t="inlineStr"/>
+      <c r="I22" s="7" t="inlineStr"/>
+      <c r="J22" s="7" t="inlineStr"/>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D23" s="7" t="inlineStr"/>
+      <c r="E23" s="7" t="inlineStr"/>
+      <c r="F23" s="7" t="inlineStr"/>
+      <c r="G23" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H23" s="8" t="inlineStr">
+        <is>
+          <t>MH008
 (Theory)
 Room: LT1
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="I15" s="7" t="inlineStr"/>
-      <c r="J15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16"/>
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="I23" s="7" t="inlineStr"/>
+      <c r="J23" s="7" t="inlineStr"/>
+    </row>
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" s="11" t="n"/>
+      <c r="B24" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D24" s="7" t="inlineStr"/>
+      <c r="E24" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F24" s="7" t="inlineStr"/>
+      <c r="G24" s="7" t="inlineStr"/>
+      <c r="H24" s="7" t="inlineStr"/>
+      <c r="I24" s="7" t="inlineStr"/>
+      <c r="J24" s="7" t="inlineStr"/>
+    </row>
+    <row r="25"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5839,7 +9602,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5954,7 +9717,7 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -5963,8 +9726,7 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
+      <c r="G8" s="8" t="inlineStr">
         <is>
           <t>MH005
 (Theory)
@@ -5972,47 +9734,44 @@
 Lecturer: GV007</t>
         </is>
       </c>
+      <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>MH003
-(Theory)
-Room: LT4
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A10" s="11" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
@@ -6020,23 +9779,23 @@
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -6047,24 +9806,17 @@
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
+      <c r="D11" s="8" t="inlineStr">
         <is>
           <t>MH005
 (Theory)
 Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
       <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
@@ -6073,7 +9825,7 @@
       <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
@@ -6083,23 +9835,33 @@
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="8" t="inlineStr">
         <is>
-          <t>MH003
+          <t>MH005
 (Theory)
 Room: LT3
 Lecturer: GV007</t>
         </is>
       </c>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I12" s="7" t="inlineStr"/>
       <c r="J12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
+      <c r="A13" s="11" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
           <t>DH23CS</t>
@@ -6108,36 +9870,241 @@
       <c r="C13" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT4
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
       <c r="I13" s="7" t="inlineStr"/>
       <c r="J13" s="7" t="inlineStr"/>
     </row>
-    <row r="14"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="11" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT4
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H15" s="7" t="inlineStr"/>
+      <c r="I15" s="7" t="inlineStr"/>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: A102
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="11" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H17" s="7" t="inlineStr"/>
+      <c r="I17" s="7" t="inlineStr"/>
+      <c r="J17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT2
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="H18" s="7" t="inlineStr"/>
+      <c r="I18" s="7" t="inlineStr"/>
+      <c r="J18" s="7" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="I19" s="7" t="inlineStr"/>
+      <c r="J19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="11" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+      <c r="I20" s="7" t="inlineStr"/>
+      <c r="J20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
